--- a/definitions/aat/exception/exception.template.xlsx
+++ b/definitions/aat/exception/exception.template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mdayican/Desktop/git_CCD_Definition_Exception/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mdayican/projects/hmcts/bulk-scan-ccd-definitions/definitions/aat/exception/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6D6901-014F-294D-8D29-24099CCEE615}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3540AD6-9569-A442-9DB6-4E6A5667E479}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19220" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1041,7 +1041,7 @@
     <t>CRU</t>
   </si>
   <si>
-    <t>${CCD_DEF_BULK_SCAN_ORCHESTRATOR_BASE_URL}/callback/attach_case</t>
+    <t>${BULK_SCAN_ORCHESTRATOR_URL}/callback/attach_case</t>
   </si>
 </sst>
 </file>
